--- a/Simulation Values.xlsx
+++ b/Simulation Values.xlsx
@@ -444,20 +444,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I111" sqref="I111"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
@@ -484,16 +484,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -502,16 +502,16 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>4</v>
@@ -1737,16 +1737,16 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>4</v>
@@ -1755,16 +1755,16 @@
         <v>5</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="I38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>4</v>

--- a/Simulation Values.xlsx
+++ b/Simulation Values.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+      <selection activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,7 +1581,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1">
+        <f>0.0248*60</f>
+        <v>1.488</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -4097,6 +4100,10 @@
         <f>AVERAGE(D109:D111)</f>
         <v>0.43039105745241235</v>
       </c>
+      <c r="F112">
+        <f>60* 0.0116</f>
+        <v>0.69599999999999995</v>
+      </c>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
